--- a/src/test/resources/student_registration.xlsx
+++ b/src/test/resources/student_registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\com.ihsm.university.project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE71C18-6127-452F-BA8B-7E179C225C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A881405-DA00-4C9C-A156-23C6ACD7845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="601" firstSheet="9" activeTab="9" xr2:uid="{83E1AD02-E6B5-41C8-98D7-77709091ACEC}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="961" firstSheet="42" activeTab="44" xr2:uid="{83E1AD02-E6B5-41C8-98D7-77709091ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="StStatus" sheetId="34" r:id="rId1"/>
@@ -41,6 +41,23 @@
     <sheet name="subjectHoursData" sheetId="37" r:id="rId26"/>
     <sheet name="GroupAssignmentData" sheetId="38" r:id="rId27"/>
     <sheet name="FacultyGroupDataShow" sheetId="39" r:id="rId28"/>
+    <sheet name="EmpEnrollnmentInformation" sheetId="40" r:id="rId29"/>
+    <sheet name="EmpPersonalInformation" sheetId="41" r:id="rId30"/>
+    <sheet name="EmpGuardianInformation" sheetId="42" r:id="rId31"/>
+    <sheet name="EmpLanguageInformation" sheetId="43" r:id="rId32"/>
+    <sheet name="EmpVaccinationInformation" sheetId="44" r:id="rId33"/>
+    <sheet name="EmpDesignationEmpRights" sheetId="45" r:id="rId34"/>
+    <sheet name="EmpDesignationPosition" sheetId="46" r:id="rId35"/>
+    <sheet name="EmpProfessionalInfoDegreeLevel" sheetId="47" r:id="rId36"/>
+    <sheet name="EmpProfessionalInfoAcademicDeg" sheetId="48" r:id="rId37"/>
+    <sheet name="EmpProfessionalInfoTitle" sheetId="49" r:id="rId38"/>
+    <sheet name="EmpProfessionalInfoDevSciWork" sheetId="50" r:id="rId39"/>
+    <sheet name="EmpProfessionalInfoDevRewards" sheetId="51" r:id="rId40"/>
+    <sheet name="EmpProfessionalInfoDevPatent" sheetId="52" r:id="rId41"/>
+    <sheet name="EmpProfessionalInfoDevAttes" sheetId="53" r:id="rId42"/>
+    <sheet name="EmpProfessionalInfoMilitaryRank" sheetId="54" r:id="rId43"/>
+    <sheet name="EmpDocumentDoc" sheetId="55" r:id="rId44"/>
+    <sheet name="EmpDocumentPassport" sheetId="56" r:id="rId45"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1546,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5702077-6394-4A02-98D5-A9D5C98DB617}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2818,6 +2835,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDF0D32-5438-433D-8833-D1A91F195AB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="XEC1048539" workbookViewId="0">
+      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BFDEAB-D3BA-4215-B5E2-50C1729C902E}">
   <dimension ref="A1:H2"/>
@@ -2892,6 +2923,132 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DEF3E-13BC-4703-9CAA-0CF889CDB13F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DB15A7-844B-48D5-A4B4-A0BD10E38A41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB826918-283E-417C-B6A5-DF504979019A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D6202F-9484-4378-9BED-A136A413309A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E648ED-2968-4ACF-8A3B-67BC87B690D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F57C77-647E-4AF1-A36B-02113D54C335}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A0DFCE-FAFB-4FE1-9548-BEA1466284EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687CD21-B589-4674-BD99-9E2C42FEE6D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CFDB46-A359-4B59-8057-6879D2A02E7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2971EC2-3993-4D74-96C8-52402878186F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2996,6 +3153,86 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46508DBD-069B-435D-B2B1-075B894AFAF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B431B5FF-0996-4DE2-9685-AFA791F25E8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8289A-68C7-4FB1-9AF5-455662321A1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A29BAA-8E00-4A06-9811-FB485C6FEC34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B06D56-4AE2-4FB3-9A2A-01EE13383843}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FB5685-5617-4B13-AEC1-D921D2BFDF5C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D127FCAD-C156-47C8-8DBE-9A584C42BB74}">
   <dimension ref="A1:A2"/>
@@ -3273,6 +3510,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8BB2145AC5254468C792DE10D43AC94" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e5a2447409261ea00061a7e0347d58b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="facf0261-3046-4379-83e6-4b564f239035" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60aaf839d7127e9db1ed69495fc40e99" ns3:_="">
     <xsd:import namespace="facf0261-3046-4379-83e6-4b564f239035"/>
@@ -3416,12 +3659,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD24E627-8D77-45E6-A2E8-6D72477AEF2F}">
   <ds:schemaRefs>
@@ -3431,6 +3668,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51273304-BDAD-4DD0-B8B1-1249F784DB7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="facf0261-3046-4379-83e6-4b564f239035"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A7BBEB4-EFA4-4BBC-AEC4-BF9096A43876}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3446,20 +3699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51273304-BDAD-4DD0-B8B1-1249F784DB7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="facf0261-3046-4379-83e6-4b564f239035"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/student_registration.xlsx
+++ b/src/test/resources/student_registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\com.ihsm.university.project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A881405-DA00-4C9C-A156-23C6ACD7845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CDE7C2-3FE2-4DA0-8D57-299074DA6018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="961" firstSheet="42" activeTab="44" xr2:uid="{83E1AD02-E6B5-41C8-98D7-77709091ACEC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="961" firstSheet="23" activeTab="23" xr2:uid="{83E1AD02-E6B5-41C8-98D7-77709091ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="StStatus" sheetId="34" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>India</t>
   </si>
@@ -1075,7 +1075,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,6 +1133,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2393,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61D5DF-4A16-4FA1-BA8E-05C7CD8F33F9}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2433,46 +2439,22 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>46055</v>
-      </c>
-      <c r="D3" s="5">
-        <v>46055</v>
-      </c>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>46055</v>
-      </c>
-      <c r="D4" s="5">
-        <v>46055</v>
-      </c>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>46055</v>
-      </c>
-      <c r="D5" s="5">
-        <v>46055</v>
-      </c>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
@@ -2495,19 +2477,22 @@
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3223,7 +3208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FB5685-5617-4B13-AEC1-D921D2BFDF5C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3510,12 +3495,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8BB2145AC5254468C792DE10D43AC94" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e5a2447409261ea00061a7e0347d58b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="facf0261-3046-4379-83e6-4b564f239035" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60aaf839d7127e9db1ed69495fc40e99" ns3:_="">
     <xsd:import namespace="facf0261-3046-4379-83e6-4b564f239035"/>
@@ -3659,6 +3638,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD24E627-8D77-45E6-A2E8-6D72477AEF2F}">
   <ds:schemaRefs>
@@ -3668,22 +3653,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51273304-BDAD-4DD0-B8B1-1249F784DB7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="facf0261-3046-4379-83e6-4b564f239035"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A7BBEB4-EFA4-4BBC-AEC4-BF9096A43876}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3699,4 +3668,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51273304-BDAD-4DD0-B8B1-1249F784DB7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="facf0261-3046-4379-83e6-4b564f239035"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>